--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,85</t>
+          <t>-2,56; 8,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 4,06</t>
+          <t>-7,87; 4,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 6,45</t>
+          <t>-5,99; 6,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 41,58</t>
+          <t>-10,23; 41,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 14,3</t>
+          <t>-22,37; 16,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 31,62</t>
+          <t>-21,79; 30,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 1,64</t>
+          <t>-6,85; 1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -5,87</t>
+          <t>-14,52; -5,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,27</t>
+          <t>-1,25; 7,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 8,59</t>
+          <t>-29,48; 8,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,97; -25,65</t>
+          <t>-54,68; -25,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 49,63</t>
+          <t>-5,81; 46,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 0,76</t>
+          <t>-6,78; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,08</t>
+          <t>-5,13; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,0</t>
+          <t>-2,43; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 5,96</t>
+          <t>-40,73; 7,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 21,34</t>
+          <t>-28,27; 21,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 47,72</t>
+          <t>-17,66; 42,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -1,86</t>
+          <t>-10,43; -2,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,34; -1,03</t>
+          <t>-8,79; -0,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,71</t>
+          <t>-4,83; 2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,23; -13,32</t>
+          <t>-55,77; -15,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -6,08</t>
+          <t>-48,16; -5,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 26,79</t>
+          <t>-34,4; 26,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,39</t>
+          <t>-6,61; 1,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,06</t>
+          <t>-4,88; 3,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,99</t>
+          <t>-4,1; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 18,76</t>
+          <t>-56,9; 14,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 38,35</t>
+          <t>-39,66; 37,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 46,3</t>
+          <t>-33,11; 56,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -0,33</t>
+          <t>-5,41; -0,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,08</t>
+          <t>-2,73; 2,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,58</t>
+          <t>-2,4; 2,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,44; -4,07</t>
+          <t>-71,58; -10,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 51,75</t>
+          <t>-40,95; 62,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 61,35</t>
+          <t>-35,19; 56,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,55</t>
+          <t>-5,09; -1,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,45</t>
+          <t>-5,77; -2,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,7</t>
+          <t>-1,48; 1,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -10,57</t>
+          <t>-29,96; -10,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -14,31</t>
+          <t>-31,39; -13,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 13,52</t>
+          <t>-10,23; 14,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 8,88</t>
+          <t>-1,84; 8,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 4,76</t>
+          <t>-7,7; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,23</t>
+          <t>-5,32; 6,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 7,98</t>
+          <t>-11,14; 8,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 41,56</t>
+          <t>-6,89; 40,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 16,29</t>
+          <t>-22,47; 17,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 30,26</t>
+          <t>-20,4; 31,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 43,4</t>
+          <t>-39,9; 46,05</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,62</t>
+          <t>-7,05; 1,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -5,76</t>
+          <t>-14,63; -5,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,81</t>
+          <t>-1,38; 8,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 0,03</t>
+          <t>-13,09; 0,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 8,85</t>
+          <t>-29,71; 10,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,68; -25,21</t>
+          <t>-53,77; -25,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 46,71</t>
+          <t>-6,2; 50,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 0,42</t>
+          <t>-43,52; 3,42</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 0,89</t>
+          <t>-7,04; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,07</t>
+          <t>-5,09; 2,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,58</t>
+          <t>-2,85; 4,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -1,04</t>
+          <t>-10,24; -0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 7,34</t>
+          <t>-41,05; 4,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 21,74</t>
+          <t>-27,46; 19,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 42,99</t>
+          <t>-19,89; 44,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,74; -5,53</t>
+          <t>-41,74; -4,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -2,12</t>
+          <t>-10,75; -1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -0,83</t>
+          <t>-9,52; -1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,72</t>
+          <t>-4,67; 2,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,18</t>
+          <t>-4,94; 3,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,77; -15,06</t>
+          <t>-57,23; -14,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -5,4</t>
+          <t>-50,12; -7,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 26,29</t>
+          <t>-33,8; 23,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 25,11</t>
+          <t>-28,0; 24,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,03</t>
+          <t>-6,89; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,08</t>
+          <t>-4,97; 3,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 4,36</t>
+          <t>-4,29; 4,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,4</t>
+          <t>-5,8; 0,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 14,57</t>
+          <t>-56,08; 14,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 37,58</t>
+          <t>-38,95; 40,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 56,05</t>
+          <t>-33,87; 46,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 12,19</t>
+          <t>-35,48; 8,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,5</t>
+          <t>-5,22; -0,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,45</t>
+          <t>-2,96; 2,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,43</t>
+          <t>-2,1; 3,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,21</t>
+          <t>-5,75; -1,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,58; -10,66</t>
+          <t>-71,57; -1,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 62,5</t>
+          <t>-42,26; 53,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 56,53</t>
+          <t>-30,66; 76,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,01; -17,28</t>
+          <t>-59,56; -21,66</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,54</t>
+          <t>-5,0; -1,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,23</t>
+          <t>-5,68; -2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,78</t>
+          <t>-1,63; 1,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -1,84</t>
+          <t>-5,83; -1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -10,14</t>
+          <t>-30,11; -11,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,39; -13,29</t>
+          <t>-30,73; -14,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 14,32</t>
+          <t>-11,5; 13,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -11,51</t>
+          <t>-32,38; -11,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 8,08</t>
+          <t>-9,89; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 46,05</t>
+          <t>-37,09; 61,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>-32,27%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 0,88</t>
+          <t>-17,21; -1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 3,42</t>
+          <t>-60,15; -6,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,31%</t>
+          <t>-24,79%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -0,86</t>
+          <t>-9,93; -0,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -4,56</t>
+          <t>-41,26; -3,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>19,91%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,02</t>
+          <t>-3,36; 9,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 24,59</t>
+          <t>-21,51; 160,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-12,64%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,99</t>
+          <t>-5,24; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 8,81</t>
+          <t>-33,91; 12,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,82%</t>
+          <t>-19,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-21,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-39,55%</t>
+          <t>-49,33%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,31</t>
+          <t>-4,82; 2,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,18</t>
+          <t>-6,19; 2,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,13</t>
+          <t>-2,36; 5,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,75; -1,54</t>
+          <t>-9,0; -0,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,57; -1,48</t>
+          <t>-62,86; 71,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 53,44</t>
+          <t>-62,0; 49,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 76,26</t>
+          <t>-30,38; 122,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,56; -21,66</t>
+          <t>-82,18; -11,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-20,88%</t>
+          <t>-75,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-23,41%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-36,97%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-8,35; -1,23</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 4,42</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 2,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; -0,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-94,27; -15,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-39,07; 302,09</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-65,44; 88,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-59,88; -1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-20,88%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-23,41%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-20,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-5,0; -1,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-5,68; -2,46</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,63; 1,68</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; -1,81</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 0,52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-30,11; -11,46</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-30,73; -14,6</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-11,5; 13,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-32,38; -11,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-33,73; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,63</t>
+          <t>-2,7; 8,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,77</t>
+          <t>-7,74; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,53</t>
+          <t>-5,59; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 9,57</t>
+          <t>-8,87; 9,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 40,6</t>
+          <t>-10,2; 41,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 17,19</t>
+          <t>-22,22; 17,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 31,24</t>
+          <t>-21,35; 28,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 61,1</t>
+          <t>-33,55; 59,16</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,82</t>
+          <t>-7,04; 1,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -5,59</t>
+          <t>-15,08; -5,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,2</t>
+          <t>-1,36; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -1,26</t>
+          <t>-16,71; -1,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 10,43</t>
+          <t>-31,14; 7,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,77; -25,35</t>
+          <t>-55,11; -24,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 50,32</t>
+          <t>-7,37; 51,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -6,59</t>
+          <t>-58,93; -8,75</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,45</t>
+          <t>-6,9; 0,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 2,76</t>
+          <t>-5,08; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,73</t>
+          <t>-2,72; 4,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,68</t>
+          <t>-9,54; -0,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 4,18</t>
+          <t>-40,41; 4,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 19,45</t>
+          <t>-27,34; 21,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 44,47</t>
+          <t>-18,93; 49,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -3,34</t>
+          <t>-40,13; -1,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,84</t>
+          <t>-10,5; -2,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -1,18</t>
+          <t>-9,22; -1,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,45</t>
+          <t>-4,27; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,49</t>
+          <t>-2,94; 9,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; -14,09</t>
+          <t>-57,79; -15,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -7,45</t>
+          <t>-48,55; -5,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 23,54</t>
+          <t>-31,28; 24,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 160,18</t>
+          <t>-18,86; 206,4</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,02</t>
+          <t>-6,85; 1,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,21</t>
+          <t>-5,07; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,08</t>
+          <t>-4,35; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,31</t>
+          <t>-4,96; 1,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 14,56</t>
+          <t>-56,51; 16,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 40,69</t>
+          <t>-39,74; 43,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 46,9</t>
+          <t>-34,96; 50,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 12,59</t>
+          <t>-32,64; 15,57</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,21</t>
+          <t>-4,53; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,33</t>
+          <t>-5,29; 2,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,32</t>
+          <t>-2,13; 5,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -0,92</t>
+          <t>-8,69; -1,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 71,69</t>
+          <t>-63,27; 69,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 49,29</t>
+          <t>-57,41; 52,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 122,54</t>
+          <t>-29,17; 139,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,18; -11,93</t>
+          <t>-81,04; -13,75</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -1,23</t>
+          <t>-8,32; -1,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,42</t>
+          <t>-1,52; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,19</t>
+          <t>-4,48; 2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -0,05</t>
+          <t>-5,5; -0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-94,27; -15,76</t>
+          <t>-94,31; -17,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 302,09</t>
+          <t>-36,71; 323,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 88,53</t>
+          <t>-69,53; 75,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -1,0</t>
+          <t>-59,25; -2,34</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -1,67</t>
+          <t>-5,02; -1,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -2,46</t>
+          <t>-6,01; -2,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,68</t>
+          <t>-1,57; 1,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,52</t>
+          <t>-5,87; 0,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -11,46</t>
+          <t>-30,3; -10,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -14,6</t>
+          <t>-32,46; -14,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 13,52</t>
+          <t>-10,92; 13,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 2,79</t>
+          <t>-34,56; 1,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
